--- a/worksheets/forms.xlsx
+++ b/worksheets/forms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-Q1R9F2N\Documents\Hobbies\Projects\Flash Cards\NT Greek FC\NT Greek FC\worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-Q1R9F2N\Documents\Hobbies\Projects\Flash Cards\NT Greek FC\worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D515806-0C16-49FB-8B1F-E954D7E48E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE562D2-E8E5-499D-96F0-6CE5F7AD0BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>nominative</t>
   </si>
   <si>
-    <t>acusative</t>
-  </si>
-  <si>
     <t>with</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>word</t>
+  </si>
+  <si>
+    <t>accusative</t>
   </si>
 </sst>
 </file>
@@ -156,21 +156,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +452,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,26 +462,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="4"/>
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
@@ -495,20 +492,19 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -516,20 +512,19 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
       <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -537,55 +532,53 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -597,69 +590,65 @@
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="4"/>
       <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
@@ -671,69 +660,65 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="4"/>
       <c r="F24" s="1" t="s">
         <v>14</v>
       </c>
@@ -745,69 +730,65 @@
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
       <c r="E27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="6"/>
-      <c r="F31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="4"/>
       <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
@@ -819,69 +800,65 @@
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
       <c r="E34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="6"/>
-      <c r="F39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="4"/>
       <c r="F40" s="1" t="s">
         <v>14</v>
       </c>
@@ -893,62 +870,59 @@
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
       <c r="E41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
       <c r="E42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
       <c r="E43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/worksheets/forms.xlsx
+++ b/worksheets/forms.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-Q1R9F2N\Documents\Hobbies\Projects\Flash Cards\NT Greek FC\worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Hobbies\Projects\Flash Cards\NT Greek FC\worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE562D2-E8E5-499D-96F0-6CE5F7AD0BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D51572-AA09-47E5-8D28-62CF273C7041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30420" yWindow="3600" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
   <si>
     <t>λεγω</t>
   </si>
@@ -93,13 +93,55 @@
     <t>of</t>
   </si>
   <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
     <t>accusative</t>
+  </si>
+  <si>
+    <t>ἡ καδια</t>
+  </si>
+  <si>
+    <t>αἱ καρδιαι</t>
+  </si>
+  <si>
+    <t>την καρδιαν</t>
+  </si>
+  <si>
+    <t>τας καρδιας</t>
+  </si>
+  <si>
+    <t>των καρδιων</t>
+  </si>
+  <si>
+    <t>της καρδιας</t>
+  </si>
+  <si>
+    <t>λεγων</t>
+  </si>
+  <si>
+    <t>λεγοντες</t>
+  </si>
+  <si>
+    <t>"word"</t>
+  </si>
+  <si>
+    <t>"heart"</t>
+  </si>
+  <si>
+    <t>of the</t>
+  </si>
+  <si>
+    <t>τῃ καρδιᾳ</t>
+  </si>
+  <si>
+    <t>ταις καρδαις</t>
+  </si>
+  <si>
+    <t>&lt;with,by,in,to,for,etc&gt;. the</t>
+  </si>
+  <si>
+    <t>"word" indicative</t>
+  </si>
+  <si>
+    <t>"word" present participle</t>
   </si>
 </sst>
 </file>
@@ -129,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,11 +194,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -165,6 +218,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,30 +513,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="13.7109375" customWidth="1"/>
-    <col min="5" max="7" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="10" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="M1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -480,16 +559,29 @@
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -498,18 +590,34 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="L3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -518,18 +626,28 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="1"/>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -538,39 +656,67 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
+      <c r="L5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="4"/>
+      <c r="I9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -578,69 +724,113 @@
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="E13" s="1" t="s">
+      <c r="H13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="H14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="4"/>
+      <c r="I16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="M16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>14</v>
@@ -648,69 +838,113 @@
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="I17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="E20" s="1" t="s">
+      <c r="H20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="H21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="F23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>14</v>
@@ -718,69 +952,104 @@
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="I24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="E26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="H26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="E27" s="1" t="s">
+      <c r="H27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="1" t="s">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="H28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4"/>
-      <c r="F31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
         <v>14</v>
@@ -788,143 +1057,62 @@
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="E33" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="E34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="E35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="4"/>
-      <c r="F39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="F40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="E41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="E42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="E43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="18">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/worksheets/forms.xlsx
+++ b/worksheets/forms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Hobbies\Projects\Flash Cards\NT Greek FC\worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D51572-AA09-47E5-8D28-62CF273C7041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A1A629-5A63-4C4E-BF20-D6F251CEFD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="3600" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
   <si>
     <t>λεγω</t>
   </si>
@@ -138,10 +138,13 @@
     <t>&lt;with,by,in,to,for,etc&gt;. the</t>
   </si>
   <si>
-    <t>"word" indicative</t>
-  </si>
-  <si>
-    <t>"word" present participle</t>
+    <t>"say" indicative</t>
+  </si>
+  <si>
+    <t>"say" present participle</t>
+  </si>
+  <si>
+    <t>"saying" present participle</t>
   </si>
 </sst>
 </file>
@@ -516,8 +519,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +541,7 @@
       <c r="C1" s="10"/>
       <c r="D1" s="5"/>
       <c r="E1" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
@@ -703,7 +706,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="5"/>
       <c r="E9" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="4"/>
@@ -1090,24 +1093,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I23:J23"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/worksheets/forms.xlsx
+++ b/worksheets/forms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Hobbies\Projects\Flash Cards\NT Greek FC\worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A1A629-5A63-4C4E-BF20-D6F251CEFD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287C0F86-8974-4FA4-9D14-3423AC4EEDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27930" yWindow="585" windowWidth="25020" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="52">
   <si>
     <t>λεγω</t>
   </si>
@@ -145,6 +145,42 @@
   </si>
   <si>
     <t>"saying" present participle</t>
+  </si>
+  <si>
+    <t>ἠμεις</t>
+  </si>
+  <si>
+    <t>ἠμας</t>
+  </si>
+  <si>
+    <t>ἠμων</t>
+  </si>
+  <si>
+    <t>ἠμιν</t>
+  </si>
+  <si>
+    <t>"you" plural</t>
+  </si>
+  <si>
+    <t>ὑμαις</t>
+  </si>
+  <si>
+    <t>ὑμας</t>
+  </si>
+  <si>
+    <t>ὑμων</t>
+  </si>
+  <si>
+    <t>ὑμιν</t>
+  </si>
+  <si>
+    <t>genitive</t>
+  </si>
+  <si>
+    <t>dative</t>
+  </si>
+  <si>
+    <t>"we/us"</t>
   </si>
 </sst>
 </file>
@@ -212,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -235,6 +271,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +572,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,9 +587,12 @@
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>37</v>
       </c>
@@ -553,8 +611,10 @@
         <v>32</v>
       </c>
       <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -582,8 +642,14 @@
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -618,8 +684,17 @@
       <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -648,8 +723,17 @@
       <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -661,7 +745,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="H5" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>8</v>
@@ -670,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>28</v>
@@ -678,28 +762,48 @@
       <c r="N5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="P5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="14"/>
+      <c r="P6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
@@ -719,7 +823,7 @@
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -748,7 +852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -767,7 +871,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -784,7 +888,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -801,7 +905,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
         <v>20</v>
       </c>
@@ -813,7 +917,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
@@ -1092,7 +1196,17 @@
       <c r="C35" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E9:F9"/>
@@ -1102,15 +1216,6 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/worksheets/forms.xlsx
+++ b/worksheets/forms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Hobbies\Projects\Flash Cards\NT Greek FC\worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Peters Projects\Greek\NT Greek FC-git\worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287C0F86-8974-4FA4-9D14-3423AC4EEDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06473A27-8D30-4C9F-8B3F-36F9A9B81CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27930" yWindow="585" windowWidth="25020" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>ὑμων</t>
   </si>
   <si>
-    <t>ὑμιν</t>
-  </si>
-  <si>
     <t>genitive</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>"we/us"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ὑμιν</t>
   </si>
 </sst>
 </file>
@@ -269,9 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -290,6 +287,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,24 +593,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="17"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
     </row>
@@ -642,10 +642,10 @@
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="Q3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="H5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>8</v>
@@ -754,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>28</v>
@@ -763,7 +763,7 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>42</v>
@@ -773,55 +773,55 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="13" t="s">
+      <c r="O6" s="13"/>
+      <c r="P6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="13" t="s">
-        <v>48</v>
+      <c r="R6" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="4"/>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="M9" s="10" t="s">
+      <c r="J9" s="17"/>
+      <c r="M9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="10"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -918,24 +918,24 @@
       <c r="N14" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="4"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="M16" s="10" t="s">
+      <c r="J16" s="17"/>
+      <c r="M16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="10"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1032,24 +1032,24 @@
       <c r="N21" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="4"/>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="M23" s="10" t="s">
+      <c r="J23" s="17"/>
+      <c r="M23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="10"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1146,15 +1146,15 @@
       <c r="N28" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1197,6 +1197,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="M1:N1"/>
@@ -1207,15 +1216,6 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
